--- a/data/trans_orig/DCD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>19907</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13121</v>
+        <v>12825</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30162</v>
+        <v>30965</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04553240443538378</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03001050114968758</v>
+        <v>0.02933408794287228</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0689877718405478</v>
+        <v>0.0708249106170699</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -764,19 +764,19 @@
         <v>34044</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23495</v>
+        <v>24777</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47166</v>
+        <v>48972</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1082641858326094</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07471815929208049</v>
+        <v>0.07879493808521829</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1499934557058475</v>
+        <v>0.1557380849335121</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -785,19 +785,19 @@
         <v>53951</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41625</v>
+        <v>39902</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70616</v>
+        <v>69556</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0717758435371742</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05537757090466108</v>
+        <v>0.053085237964582</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09394649308668189</v>
+        <v>0.09253621132982014</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>417304</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>407049</v>
+        <v>406246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>424090</v>
+        <v>424386</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9544675955646162</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9310122281594522</v>
+        <v>0.9291750893829301</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9699894988503125</v>
+        <v>0.9706659120571277</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>252</v>
@@ -835,19 +835,19 @@
         <v>280410</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>267288</v>
+        <v>265482</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>290959</v>
+        <v>289677</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8917358141673906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8500065442941525</v>
+        <v>0.844261915066488</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9252818407079194</v>
+        <v>0.9212050619147818</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>637</v>
@@ -856,19 +856,19 @@
         <v>697714</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>681049</v>
+        <v>682109</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>710040</v>
+        <v>711763</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9282241564628259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9060535069133181</v>
+        <v>0.9074637886701798</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9446224290953388</v>
+        <v>0.9469147620354179</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>21694</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13086</v>
+        <v>13704</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32498</v>
+        <v>33180</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05180041351977145</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03124608449046816</v>
+        <v>0.03272201188068856</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07759798752082574</v>
+        <v>0.07922611366645851</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -981,19 +981,19 @@
         <v>43901</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30705</v>
+        <v>31713</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56130</v>
+        <v>58860</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1298817855801846</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09084063705905274</v>
+        <v>0.09382234229367237</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1660606887293122</v>
+        <v>0.1741354335632625</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -1002,19 +1002,19 @@
         <v>65595</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49770</v>
+        <v>49579</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83114</v>
+        <v>84273</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08667368174922666</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06576246590077818</v>
+        <v>0.06551059484794619</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1098220460121258</v>
+        <v>0.1113528834361505</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>397103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>386299</v>
+        <v>385617</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>405711</v>
+        <v>405093</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9481995864802285</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9224020124791742</v>
+        <v>0.9207738863335414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9687539155095318</v>
+        <v>0.9672779881193114</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>266</v>
@@ -1052,19 +1052,19 @@
         <v>294110</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>281881</v>
+        <v>279151</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>307306</v>
+        <v>306298</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8701182144198154</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8339393112706879</v>
+        <v>0.8258645664367377</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9091593629409475</v>
+        <v>0.9061776577063277</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>621</v>
@@ -1073,19 +1073,19 @@
         <v>691213</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>673694</v>
+        <v>672535</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>707038</v>
+        <v>707229</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9133263182507734</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8901779539878742</v>
+        <v>0.8886471165638495</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9342375340992218</v>
+        <v>0.934489405152054</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>53316</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40389</v>
+        <v>39082</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70105</v>
+        <v>70317</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08470644736411881</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06416884641003444</v>
+        <v>0.06209225688959651</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1113809226109289</v>
+        <v>0.1117176582805448</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -1198,19 +1198,19 @@
         <v>34574</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24320</v>
+        <v>25597</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47244</v>
+        <v>47038</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1329122363382201</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09349389970749183</v>
+        <v>0.09840123035103236</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1816172324173919</v>
+        <v>0.1808258734718924</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -1219,19 +1219,19 @@
         <v>87890</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70815</v>
+        <v>70691</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109164</v>
+        <v>109091</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09880326650762028</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07960847911289345</v>
+        <v>0.07946846233612163</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1227194351811664</v>
+        <v>0.1226369769239085</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>576099</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>559310</v>
+        <v>559098</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>589026</v>
+        <v>590333</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9152935526358812</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8886190773890713</v>
+        <v>0.8882823417194552</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9358311535899656</v>
+        <v>0.9379077431104037</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>211</v>
@@ -1269,19 +1269,19 @@
         <v>225555</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>212885</v>
+        <v>213091</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>235809</v>
+        <v>234532</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8670877636617799</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8183827675826083</v>
+        <v>0.8191741265281076</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9065061002925082</v>
+        <v>0.9015987696489677</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>754</v>
@@ -1290,19 +1290,19 @@
         <v>801654</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>780380</v>
+        <v>780453</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>818729</v>
+        <v>818853</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9011967334923797</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8772805648188335</v>
+        <v>0.8773630230760915</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9203915208871065</v>
+        <v>0.9205315376638784</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>97364</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80288</v>
+        <v>79847</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>118770</v>
+        <v>119027</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08400642243928994</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06927313761086944</v>
+        <v>0.06889213660425085</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1024755472974025</v>
+        <v>0.1026972272386135</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -1415,19 +1415,19 @@
         <v>104125</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84636</v>
+        <v>86835</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124970</v>
+        <v>126160</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1358167006204447</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1103961572023071</v>
+        <v>0.1132649693258463</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1630069864988907</v>
+        <v>0.1645581495410926</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>187</v>
@@ -1436,19 +1436,19 @@
         <v>201489</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>176424</v>
+        <v>177051</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>231333</v>
+        <v>230346</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1046334268547768</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09161727096913534</v>
+        <v>0.09194291265870001</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1201315262064361</v>
+        <v>0.1196187368789446</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>1061645</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1040239</v>
+        <v>1039982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1078721</v>
+        <v>1079162</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9159935775607101</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8975244527025975</v>
+        <v>0.8973027727613866</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9307268623891305</v>
+        <v>0.9311078633957491</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>615</v>
@@ -1486,19 +1486,19 @@
         <v>662532</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>641687</v>
+        <v>640497</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>682021</v>
+        <v>679822</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8641832993795553</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8369930135011093</v>
+        <v>0.8354418504589075</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8896038427976938</v>
+        <v>0.8867350306741539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1607</v>
@@ -1507,19 +1507,19 @@
         <v>1724178</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1694334</v>
+        <v>1695321</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1749243</v>
+        <v>1748616</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8953665731452232</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8798684737935639</v>
+        <v>0.8803812631210554</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9083827290308646</v>
+        <v>0.9080570873413</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>34653</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23497</v>
+        <v>23512</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47149</v>
+        <v>47313</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06786708876978777</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04601973574052867</v>
+        <v>0.04604828347228129</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09234107465747793</v>
+        <v>0.09266246396866454</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>147</v>
@@ -1632,19 +1632,19 @@
         <v>157384</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>134694</v>
+        <v>135917</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>180063</v>
+        <v>182338</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2066707564678655</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1768750514441269</v>
+        <v>0.1784808629468625</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2364521007202946</v>
+        <v>0.2394391893742368</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>180</v>
@@ -1653,19 +1653,19 @@
         <v>192037</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>165140</v>
+        <v>168805</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>217216</v>
+        <v>219120</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1509584424319011</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1298148134661098</v>
+        <v>0.1326958969840392</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1707515627384086</v>
+        <v>0.1722479307276898</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>475943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>463447</v>
+        <v>463283</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>487099</v>
+        <v>487084</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9321329112302122</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9076589253425218</v>
+        <v>0.9073375360313355</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9539802642594712</v>
+        <v>0.9539517165277187</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>556</v>
@@ -1703,19 +1703,19 @@
         <v>604138</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>581459</v>
+        <v>579184</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>626828</v>
+        <v>625605</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7933292435321344</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7635478992797055</v>
+        <v>0.7605608106257633</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8231249485558731</v>
+        <v>0.8215191370531375</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1010</v>
@@ -1724,19 +1724,19 @@
         <v>1080081</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1054902</v>
+        <v>1052998</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1106978</v>
+        <v>1103313</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8490415575680988</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8292484372615914</v>
+        <v>0.8277520692723103</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8701851865338902</v>
+        <v>0.8673041030159608</v>
       </c>
     </row>
     <row r="18">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8400</v>
+        <v>7997</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005007854625554181</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03147491838730777</v>
+        <v>0.0299657268255718</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>189</v>
@@ -1849,19 +1849,19 @@
         <v>205127</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>180239</v>
+        <v>179108</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>232354</v>
+        <v>232906</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1849069440641908</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1624722700228423</v>
+        <v>0.1614532366050791</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2094506234963049</v>
+        <v>0.209947617870262</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>190</v>
@@ -1870,19 +1870,19 @@
         <v>206463</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>180226</v>
+        <v>179325</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>235937</v>
+        <v>232528</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.150020548253697</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1309557552062602</v>
+        <v>0.1303012970255689</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1714368070405064</v>
+        <v>0.1689595442687521</v>
       </c>
     </row>
     <row r="20">
@@ -1899,7 +1899,7 @@
         <v>265545</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258482</v>
+        <v>258885</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>266882</v>
@@ -1908,7 +1908,7 @@
         <v>0.9949921453744458</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9685250816126942</v>
+        <v>0.9700342731744283</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1920,19 +1920,19 @@
         <v>904224</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>876997</v>
+        <v>876445</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>929112</v>
+        <v>930243</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8150930559358093</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7905493765036953</v>
+        <v>0.7900523821297382</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8375277299771576</v>
+        <v>0.8385467633949208</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1119</v>
@@ -1941,19 +1941,19 @@
         <v>1169770</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1140296</v>
+        <v>1143705</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1196007</v>
+        <v>1196908</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.849979451746303</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8285631929594939</v>
+        <v>0.831040455731248</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8690442447937402</v>
+        <v>0.869698702974431</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>228270</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>197397</v>
+        <v>200733</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>259091</v>
+        <v>262470</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06670836402910828</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05768607581828028</v>
+        <v>0.0586612310664083</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07571545678538409</v>
+        <v>0.07670273601575692</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>535</v>
@@ -2066,19 +2066,19 @@
         <v>579156</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>535080</v>
+        <v>536374</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>628222</v>
+        <v>628531</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1631367578308593</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1507214839304248</v>
+        <v>0.1510858975355341</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1769577673449077</v>
+        <v>0.1770447396599816</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>747</v>
@@ -2087,19 +2087,19 @@
         <v>807426</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>750211</v>
+        <v>752028</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>863325</v>
+        <v>864532</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1158092170678863</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1076028944082615</v>
+        <v>0.1078634324530644</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.123826880011091</v>
+        <v>0.1239998839805362</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>3193640</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3162819</v>
+        <v>3159440</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3224513</v>
+        <v>3221177</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9332916359708917</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.924284543214616</v>
+        <v>0.9232972639842427</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9423139241817197</v>
+        <v>0.9413387689335917</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2755</v>
@@ -2137,19 +2137,19 @@
         <v>2970969</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2921903</v>
+        <v>2921594</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3015045</v>
+        <v>3013751</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8368632421691407</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8230422326550922</v>
+        <v>0.8229552603400183</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8492785160695752</v>
+        <v>0.8489141024644659</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5748</v>
@@ -2158,19 +2158,19 @@
         <v>6164609</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6108710</v>
+        <v>6107503</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6221824</v>
+        <v>6220007</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8841907829321137</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.876173119988909</v>
+        <v>0.8760001160194639</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8923971055917386</v>
+        <v>0.8921365675469355</v>
       </c>
     </row>
     <row r="24">
@@ -2504,19 +2504,19 @@
         <v>24039</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15767</v>
+        <v>16038</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34918</v>
+        <v>36408</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05602202978679735</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03674514803494768</v>
+        <v>0.03737618054962336</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0813758357295509</v>
+        <v>0.08484998558380553</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2525,19 +2525,19 @@
         <v>26958</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17988</v>
+        <v>18125</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39393</v>
+        <v>38984</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07767506535502149</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05183131999233332</v>
+        <v>0.05222420730642232</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1135052715279884</v>
+        <v>0.1123276390378806</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -2546,19 +2546,19 @@
         <v>50996</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38605</v>
+        <v>38171</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66736</v>
+        <v>66324</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06570420731134494</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04973924228670164</v>
+        <v>0.04918017471474342</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08598426777924101</v>
+        <v>0.08545230505108159</v>
       </c>
     </row>
     <row r="5">
@@ -2575,19 +2575,19 @@
         <v>405053</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>394174</v>
+        <v>392684</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>413325</v>
+        <v>413054</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9439779702132026</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9186241642704491</v>
+        <v>0.9151500144161943</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9632548519650524</v>
+        <v>0.9626238194503766</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>307</v>
@@ -2596,19 +2596,19 @@
         <v>320097</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307662</v>
+        <v>308071</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>329067</v>
+        <v>328930</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9223249346449786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8864947284720113</v>
+        <v>0.8876723609621182</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9481686800076659</v>
+        <v>0.9477757926935775</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>681</v>
@@ -2617,19 +2617,19 @@
         <v>725151</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>709411</v>
+        <v>709823</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>737542</v>
+        <v>737976</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.934295792688655</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.914015732220759</v>
+        <v>0.9145476949489184</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9502607577132983</v>
+        <v>0.9508198252852565</v>
       </c>
     </row>
     <row r="6">
@@ -2721,19 +2721,19 @@
         <v>17481</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10287</v>
+        <v>10435</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28864</v>
+        <v>28460</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0463416418905756</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02727110717089361</v>
+        <v>0.02766298857494817</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07651667122581292</v>
+        <v>0.0754459391287097</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -2742,19 +2742,19 @@
         <v>39216</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28056</v>
+        <v>27863</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52665</v>
+        <v>53521</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1053417795654639</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07536439786787584</v>
+        <v>0.07484517428597053</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1414698424854494</v>
+        <v>0.143769006573611</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -2763,19 +2763,19 @@
         <v>56697</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41343</v>
+        <v>43594</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72275</v>
+        <v>74022</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07564673377918879</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05516090243640701</v>
+        <v>0.05816354559498513</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09643040684567865</v>
+        <v>0.0987624533502061</v>
       </c>
     </row>
     <row r="8">
@@ -2792,19 +2792,19 @@
         <v>359746</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>348363</v>
+        <v>348767</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366940</v>
+        <v>366792</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9536583581094245</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.923483328774187</v>
+        <v>0.9245540608712903</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9727288928291065</v>
+        <v>0.9723370114250518</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>316</v>
@@ -2813,19 +2813,19 @@
         <v>333057</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>319608</v>
+        <v>318752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>344217</v>
+        <v>344410</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8946582204345361</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8585301575145508</v>
+        <v>0.8562309934263886</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9246356021321243</v>
+        <v>0.9251548257140293</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>655</v>
@@ -2834,19 +2834,19 @@
         <v>692803</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>677225</v>
+        <v>675478</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>708157</v>
+        <v>705906</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9243532662208113</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9035695931543213</v>
+        <v>0.9012375466497938</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.944839097563593</v>
+        <v>0.9418364544050148</v>
       </c>
     </row>
     <row r="9">
@@ -2938,19 +2938,19 @@
         <v>35650</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25134</v>
+        <v>24987</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47954</v>
+        <v>47852</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06830606490193124</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04815752498644828</v>
+        <v>0.04787656919521701</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09188065171145647</v>
+        <v>0.0916863106553918</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -2959,19 +2959,19 @@
         <v>31142</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21856</v>
+        <v>21887</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42875</v>
+        <v>42582</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.187465076054679</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1315657147743096</v>
+        <v>0.1317518356717516</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2580892788784542</v>
+        <v>0.256329235041485</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -2980,19 +2980,19 @@
         <v>66792</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51360</v>
+        <v>52521</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82955</v>
+        <v>84476</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09707638336317964</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07464711746561739</v>
+        <v>0.07633458820158487</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1205673897200846</v>
+        <v>0.1227786841739561</v>
       </c>
     </row>
     <row r="11">
@@ -3009,19 +3009,19 @@
         <v>486264</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>473960</v>
+        <v>474062</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>496780</v>
+        <v>496927</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9316939350980687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9081193482885433</v>
+        <v>0.9083136893446082</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9518424750135515</v>
+        <v>0.9521234308047828</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -3030,19 +3030,19 @@
         <v>134981</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>123248</v>
+        <v>123541</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>144267</v>
+        <v>144236</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8125349239453209</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7419107211215463</v>
+        <v>0.7436707649585151</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8684342852256904</v>
+        <v>0.8682481643282484</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>594</v>
@@ -3051,19 +3051,19 @@
         <v>621244</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>605081</v>
+        <v>603560</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>636676</v>
+        <v>635515</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9029236166368204</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8794326102799153</v>
+        <v>0.8772213158260438</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9253528825343825</v>
+        <v>0.9236654117984151</v>
       </c>
     </row>
     <row r="12">
@@ -3155,19 +3155,19 @@
         <v>85707</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69456</v>
+        <v>70010</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104607</v>
+        <v>105516</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07455145936142872</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06041513406306727</v>
+        <v>0.06089785923654929</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09099106603261523</v>
+        <v>0.09178225972025646</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>87</v>
@@ -3176,19 +3176,19 @@
         <v>94651</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76870</v>
+        <v>77620</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114581</v>
+        <v>117082</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.114607388051741</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09307727423999591</v>
+        <v>0.09398532944107379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1387382529112118</v>
+        <v>0.1417664803539329</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>169</v>
@@ -3197,19 +3197,19 @@
         <v>180359</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>156515</v>
+        <v>156575</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>207151</v>
+        <v>207232</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09129708639885523</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07922770282899486</v>
+        <v>0.07925781901030539</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1048590891225161</v>
+        <v>0.104900417575966</v>
       </c>
     </row>
     <row r="14">
@@ -3226,19 +3226,19 @@
         <v>1063931</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1045031</v>
+        <v>1044122</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1080182</v>
+        <v>1079628</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9254485406385713</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9090089339673848</v>
+        <v>0.9082177402797434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9395848659369327</v>
+        <v>0.9391021407634508</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>711</v>
@@ -3247,19 +3247,19 @@
         <v>731225</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>711295</v>
+        <v>708794</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>749006</v>
+        <v>748256</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.885392611948259</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8612617470887876</v>
+        <v>0.858233519646067</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.906922725760004</v>
+        <v>0.9060146705589263</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1732</v>
@@ -3268,19 +3268,19 @@
         <v>1795155</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1768363</v>
+        <v>1768282</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1818999</v>
+        <v>1818939</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9087029136011447</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8951409108774839</v>
+        <v>0.8950995824240341</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9207722971710053</v>
+        <v>0.9207421809896947</v>
       </c>
     </row>
     <row r="15">
@@ -3372,19 +3372,19 @@
         <v>62956</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48506</v>
+        <v>48700</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>79315</v>
+        <v>79528</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1014262373059398</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07814571172603353</v>
+        <v>0.07845906088066042</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1277812393495786</v>
+        <v>0.1281244114667395</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>116</v>
@@ -3393,19 +3393,19 @@
         <v>126944</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>109034</v>
+        <v>107675</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>148796</v>
+        <v>149435</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1719542709332645</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1476932149791277</v>
+        <v>0.1458534757573732</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2015533311839171</v>
+        <v>0.202420088333908</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>178</v>
@@ -3414,19 +3414,19 @@
         <v>189900</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>163877</v>
+        <v>165385</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>216570</v>
+        <v>216866</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1397403080224706</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1205908827744211</v>
+        <v>0.12170055560022</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1593658129749375</v>
+        <v>0.1595831688306892</v>
       </c>
     </row>
     <row r="17">
@@ -3443,19 +3443,19 @@
         <v>557750</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>541391</v>
+        <v>541178</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>572200</v>
+        <v>572006</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8985737626940602</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8722187606504206</v>
+        <v>0.8718755885332603</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9218542882739662</v>
+        <v>0.9215409391193394</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>583</v>
@@ -3464,19 +3464,19 @@
         <v>611300</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>589448</v>
+        <v>588809</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>629210</v>
+        <v>630569</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8280457290667355</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7984466688160828</v>
+        <v>0.7975799116660928</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8523067850208723</v>
+        <v>0.8541465242426268</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1118</v>
@@ -3485,19 +3485,19 @@
         <v>1169050</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1142380</v>
+        <v>1142084</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1195073</v>
+        <v>1193565</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8602596919775294</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8406341870250624</v>
+        <v>0.8404168311693109</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.879409117225579</v>
+        <v>0.8782994443997801</v>
       </c>
     </row>
     <row r="18">
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6669</v>
+        <v>7674</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007638292048316815</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02322496884272338</v>
+        <v>0.02672378481888374</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>122</v>
@@ -3610,19 +3610,19 @@
         <v>140394</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>118905</v>
+        <v>119685</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>165828</v>
+        <v>165648</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1297511513974946</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1098909448303863</v>
+        <v>0.1106122961408345</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1532566377468381</v>
+        <v>0.1530908345480863</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>124</v>
@@ -3631,19 +3631,19 @@
         <v>142587</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>120364</v>
+        <v>119751</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>167862</v>
+        <v>166576</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1041413914612576</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08791029880035556</v>
+        <v>0.087462203492011</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1226010563820895</v>
+        <v>0.1216623749437939</v>
       </c>
     </row>
     <row r="20">
@@ -3660,7 +3660,7 @@
         <v>284952</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280476</v>
+        <v>279471</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -3669,7 +3669,7 @@
         <v>0.9923617079516832</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9767750311572775</v>
+        <v>0.9732762151811163</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3681,19 +3681,19 @@
         <v>941631</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>916197</v>
+        <v>916377</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>963120</v>
+        <v>962340</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8702488486025054</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8467433622531619</v>
+        <v>0.8469091654519135</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8901090551696138</v>
+        <v>0.8893877038591654</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1140</v>
@@ -3702,19 +3702,19 @@
         <v>1226583</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1201308</v>
+        <v>1202594</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1248806</v>
+        <v>1249419</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8958586085387423</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8773989436179105</v>
+        <v>0.8783376250562073</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9120897011996445</v>
+        <v>0.9125377965079893</v>
       </c>
     </row>
     <row r="21">
@@ -3806,19 +3806,19 @@
         <v>228026</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>200703</v>
+        <v>200593</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>256050</v>
+        <v>262014</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0673493471182145</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0592791624024019</v>
+        <v>0.05924683910934553</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07562638400186489</v>
+        <v>0.07738791332199368</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>413</v>
@@ -3827,19 +3827,19 @@
         <v>459305</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>417692</v>
+        <v>416452</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>501488</v>
+        <v>502848</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1300560307466631</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1182729013262117</v>
+        <v>0.1179216425268273</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1420003631338252</v>
+        <v>0.1423853620142926</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>630</v>
@@ -3848,19 +3848,19 @@
         <v>687332</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>639570</v>
+        <v>635578</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>750219</v>
+        <v>736659</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09936387407922279</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09245929120328225</v>
+        <v>0.09188219624956032</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1084551842921972</v>
+        <v>0.106494869103499</v>
       </c>
     </row>
     <row r="23">
@@ -3877,19 +3877,19 @@
         <v>3157696</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3129672</v>
+        <v>3123708</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3185019</v>
+        <v>3185129</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9326506528817855</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9243736159981351</v>
+        <v>0.9226120866780063</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9407208375975981</v>
+        <v>0.9407531608906544</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2913</v>
@@ -3898,19 +3898,19 @@
         <v>3072291</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3030108</v>
+        <v>3028748</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3113904</v>
+        <v>3115144</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8699439692533369</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8579996368661749</v>
+        <v>0.8576146379857071</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8817270986737883</v>
+        <v>0.8820783574731725</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5920</v>
@@ -3919,19 +3919,19 @@
         <v>6229986</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6167099</v>
+        <v>6180659</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6277748</v>
+        <v>6281740</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9006361259207772</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8915448157078029</v>
+        <v>0.8935051308965006</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9075407087967178</v>
+        <v>0.9081178037504396</v>
       </c>
     </row>
     <row r="24">
@@ -4265,19 +4265,19 @@
         <v>47751</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36945</v>
+        <v>36565</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61599</v>
+        <v>62193</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08672315483679867</v>
+        <v>0.08672315483679865</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06709685367626103</v>
+        <v>0.06640757017424927</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1118723390405708</v>
+        <v>0.1129504935410886</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>135</v>
@@ -4286,19 +4286,19 @@
         <v>98792</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83885</v>
+        <v>83992</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>116172</v>
+        <v>115027</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2022715041068396</v>
+        <v>0.2022715041068395</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.171751708800252</v>
+        <v>0.1719702107075543</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2378563862371993</v>
+        <v>0.2355134799659236</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>191</v>
@@ -4307,19 +4307,19 @@
         <v>146543</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>127484</v>
+        <v>124338</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>168833</v>
+        <v>167947</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1410383504327937</v>
+        <v>0.1410383504327936</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1226953195232069</v>
+        <v>0.1196671399171403</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1624915732897324</v>
+        <v>0.1616387602213775</v>
       </c>
     </row>
     <row r="5">
@@ -4336,19 +4336,19 @@
         <v>502867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489019</v>
+        <v>488425</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>513673</v>
+        <v>514053</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9132768451632015</v>
+        <v>0.9132768451632014</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8881276609594294</v>
+        <v>0.8870495064589111</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9329031463237389</v>
+        <v>0.9335924298257505</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>551</v>
@@ -4357,19 +4357,19 @@
         <v>389619</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>372239</v>
+        <v>373384</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>404526</v>
+        <v>404419</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7977284958931606</v>
+        <v>0.7977284958931605</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7621436137628012</v>
+        <v>0.7644865200340764</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8282482911997482</v>
+        <v>0.8280297892924458</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1049</v>
@@ -4378,19 +4378,19 @@
         <v>892486</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>870196</v>
+        <v>871082</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>911545</v>
+        <v>914691</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8589616495672064</v>
+        <v>0.8589616495672063</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8375084267102676</v>
+        <v>0.8383612397786222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8773046804767933</v>
+        <v>0.8803328600828594</v>
       </c>
     </row>
     <row r="6">
@@ -4482,19 +4482,19 @@
         <v>47762</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36338</v>
+        <v>36005</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61250</v>
+        <v>61225</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.098843135238185</v>
+        <v>0.09884313523818497</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07520122620810069</v>
+        <v>0.07451254083166109</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1267561853030885</v>
+        <v>0.1267032616333593</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>144</v>
@@ -4503,19 +4503,19 @@
         <v>99507</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85769</v>
+        <v>84229</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>115263</v>
+        <v>116129</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2351606401775817</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2026959452566845</v>
+        <v>0.199055289499015</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2723968703282129</v>
+        <v>0.2744442824387757</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>197</v>
@@ -4524,19 +4524,19 @@
         <v>147269</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>126997</v>
+        <v>127771</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>167348</v>
+        <v>167325</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1624846201315286</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1401181059682626</v>
+        <v>0.1409721878627543</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1846381031509419</v>
+        <v>0.1846134554328298</v>
       </c>
     </row>
     <row r="8">
@@ -4553,19 +4553,19 @@
         <v>435450</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>421962</v>
+        <v>421987</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>446874</v>
+        <v>447207</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.901156864761815</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8732438146969115</v>
+        <v>0.8732967383666406</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9247987737918991</v>
+        <v>0.9254874591683389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>446</v>
@@ -4574,19 +4574,19 @@
         <v>323636</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>307880</v>
+        <v>307014</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>337374</v>
+        <v>338914</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7648393598224182</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7276031296717871</v>
+        <v>0.7255557175612241</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7973040547433154</v>
+        <v>0.8009447105009847</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>874</v>
@@ -4595,19 +4595,19 @@
         <v>759086</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>739007</v>
+        <v>739030</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>779358</v>
+        <v>778584</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8375153798684714</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8153618968490581</v>
+        <v>0.8153865445671709</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8598818940317375</v>
+        <v>0.8590278121372463</v>
       </c>
     </row>
     <row r="9">
@@ -4699,19 +4699,19 @@
         <v>66506</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53715</v>
+        <v>52344</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83447</v>
+        <v>82217</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1410194691849624</v>
+        <v>0.1410194691849623</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1138976354936096</v>
+        <v>0.1109884829480706</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1769406090866393</v>
+        <v>0.174330890643877</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -4720,19 +4720,19 @@
         <v>60028</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49445</v>
+        <v>50447</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70767</v>
+        <v>71818</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3201535624244631</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2637120054213124</v>
+        <v>0.2690527934070618</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3774291615396093</v>
+        <v>0.3830338031203052</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>172</v>
@@ -4741,19 +4741,19 @@
         <v>126534</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>110457</v>
+        <v>108287</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>146945</v>
+        <v>144867</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1919778935503635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1675853206158134</v>
+        <v>0.1642934447109323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2229442747089538</v>
+        <v>0.2197921261541734</v>
       </c>
     </row>
     <row r="11">
@@ -4770,19 +4770,19 @@
         <v>405106</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>388165</v>
+        <v>389395</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>417897</v>
+        <v>419268</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8589805308150377</v>
+        <v>0.8589805308150376</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8230593909133608</v>
+        <v>0.8256691093561228</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8861023645063906</v>
+        <v>0.8890115170519295</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>195</v>
@@ -4791,19 +4791,19 @@
         <v>127469</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>116730</v>
+        <v>115679</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>138052</v>
+        <v>137050</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.679846437575537</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6225708384603907</v>
+        <v>0.6169661968796949</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7362879945786877</v>
+        <v>0.7309472065929383</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>605</v>
@@ -4812,19 +4812,19 @@
         <v>532575</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>512164</v>
+        <v>514242</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>548652</v>
+        <v>550822</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8080221064496365</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7770557252910468</v>
+        <v>0.7802078738458268</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8324146793841866</v>
+        <v>0.8357065552890678</v>
       </c>
     </row>
     <row r="12">
@@ -4916,19 +4916,19 @@
         <v>180975</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>155060</v>
+        <v>157517</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>204852</v>
+        <v>205666</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1598940639503385</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1369977474288463</v>
+        <v>0.1391684781731909</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1809900122982413</v>
+        <v>0.1817089500007485</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>312</v>
@@ -4937,19 +4937,19 @@
         <v>207582</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>186921</v>
+        <v>185475</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>230374</v>
+        <v>230757</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2410350944927189</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2170443916060978</v>
+        <v>0.2153654789335163</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2674995456873929</v>
+        <v>0.2679452840264813</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>523</v>
@@ -4958,19 +4958,19 @@
         <v>388557</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>357985</v>
+        <v>356819</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>426429</v>
+        <v>422308</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1949556202087065</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1796164038896406</v>
+        <v>0.179031182858252</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2139576446700148</v>
+        <v>0.2118901027800456</v>
       </c>
     </row>
     <row r="14">
@@ -4987,19 +4987,19 @@
         <v>950868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>926991</v>
+        <v>926177</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>976783</v>
+        <v>974326</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8401059360496613</v>
+        <v>0.8401059360496614</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8190099877017587</v>
+        <v>0.8182910499992515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8630022525711537</v>
+        <v>0.860831521826809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>918</v>
@@ -5008,19 +5008,19 @@
         <v>653629</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>630837</v>
+        <v>630454</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>674290</v>
+        <v>675736</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.758964905507281</v>
+        <v>0.7589649055072811</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7325004543126069</v>
+        <v>0.7320547159735187</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7829556083939019</v>
+        <v>0.7846345210664839</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1825</v>
@@ -5029,19 +5029,19 @@
         <v>1604497</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1566625</v>
+        <v>1570746</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1635069</v>
+        <v>1636235</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8050443797912934</v>
+        <v>0.8050443797912936</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7860423553299852</v>
+        <v>0.7881098972199545</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8203835961103593</v>
+        <v>0.820968817141748</v>
       </c>
     </row>
     <row r="15">
@@ -5133,19 +5133,19 @@
         <v>92544</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76427</v>
+        <v>75100</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110936</v>
+        <v>109759</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1629393803194027</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1345635351566714</v>
+        <v>0.132225910883114</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1953230319622453</v>
+        <v>0.1932491880673309</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>481</v>
@@ -5154,19 +5154,19 @@
         <v>282701</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>259402</v>
+        <v>260093</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>305002</v>
+        <v>305444</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3402556724615649</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3122125102269661</v>
+        <v>0.3130450695316213</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3670968469721048</v>
+        <v>0.3676287829093147</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>587</v>
@@ -5175,19 +5175,19 @@
         <v>375245</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>347585</v>
+        <v>350498</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>404665</v>
+        <v>404075</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2682595197981554</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2484856994010742</v>
+        <v>0.2505676336526297</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2892913513390057</v>
+        <v>0.2888696980627339</v>
       </c>
     </row>
     <row r="17">
@@ -5204,19 +5204,19 @@
         <v>475420</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>457028</v>
+        <v>458205</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>491537</v>
+        <v>492864</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8370606196805973</v>
+        <v>0.8370606196805971</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8046769680377546</v>
+        <v>0.8067508119326694</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8654364648433286</v>
+        <v>0.8677740891168858</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>809</v>
@@ -5225,19 +5225,19 @@
         <v>548149</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>525848</v>
+        <v>525406</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>571448</v>
+        <v>570757</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6597443275384351</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6329031530278952</v>
+        <v>0.6323712170906852</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6877874897730339</v>
+        <v>0.6869549304683786</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1250</v>
@@ -5246,19 +5246,19 @@
         <v>1023569</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>994149</v>
+        <v>994739</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1051229</v>
+        <v>1048316</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7317404802018446</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7107086486609945</v>
+        <v>0.7111303019372662</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.751514300598926</v>
+        <v>0.7494323663473703</v>
       </c>
     </row>
     <row r="18">
@@ -5350,19 +5350,19 @@
         <v>7546</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3391</v>
+        <v>3920</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14836</v>
+        <v>15831</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0318111589357617</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01429504931363926</v>
+        <v>0.01652228988405672</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06253875035136401</v>
+        <v>0.06673280830851269</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>357</v>
@@ -5371,19 +5371,19 @@
         <v>228618</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>206439</v>
+        <v>206951</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>255454</v>
+        <v>252186</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2707842292171507</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2445146983790586</v>
+        <v>0.2451206633303934</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3025700281682987</v>
+        <v>0.2986994848944797</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>366</v>
@@ -5392,19 +5392,19 @@
         <v>236165</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>209790</v>
+        <v>211215</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>262984</v>
+        <v>264121</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2183657499082045</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1939789957275147</v>
+        <v>0.1952967079168614</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2431637423897425</v>
+        <v>0.2442153932610812</v>
       </c>
     </row>
     <row r="20">
@@ -5421,19 +5421,19 @@
         <v>229682</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222392</v>
+        <v>221397</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233837</v>
+        <v>233308</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9681888410642383</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9374612496486358</v>
+        <v>0.9332671916914871</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9857049506863607</v>
+        <v>0.9834777101159433</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>802</v>
@@ -5442,19 +5442,19 @@
         <v>615663</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>588827</v>
+        <v>592095</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>637842</v>
+        <v>637330</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7292157707828493</v>
+        <v>0.7292157707828494</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6974299718317012</v>
+        <v>0.7013005151055193</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7554853016209414</v>
+        <v>0.7548793366696062</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>905</v>
@@ -5463,19 +5463,19 @@
         <v>845344</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>818525</v>
+        <v>817388</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>871719</v>
+        <v>870294</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7816342500917955</v>
+        <v>0.7816342500917957</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7568362576102575</v>
+        <v>0.7557846067389189</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8060210042724854</v>
+        <v>0.8047032920831385</v>
       </c>
     </row>
     <row r="21">
@@ -5567,19 +5567,19 @@
         <v>443085</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>404915</v>
+        <v>404544</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>482624</v>
+        <v>485721</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.128711148730786</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1176232579141806</v>
+        <v>0.1175155239896034</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1401968575834376</v>
+        <v>0.1410962695410193</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1523</v>
@@ -5588,19 +5588,19 @@
         <v>977228</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>934884</v>
+        <v>936606</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1026488</v>
+        <v>1027485</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2688093263624788</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2571618570082543</v>
+        <v>0.2576353977982164</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2823595058466266</v>
+        <v>0.2826337264138036</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2036</v>
@@ -5609,19 +5609,19 @@
         <v>1420313</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1353332</v>
+        <v>1360960</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1478685</v>
+        <v>1484480</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2006695230413678</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1912061552661901</v>
+        <v>0.1922839059688959</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2089166700752746</v>
+        <v>0.2097354668022303</v>
       </c>
     </row>
     <row r="23">
@@ -5638,19 +5638,19 @@
         <v>2999391</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2959852</v>
+        <v>2956755</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3037561</v>
+        <v>3037932</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8712888512692141</v>
+        <v>0.8712888512692142</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8598031424165624</v>
+        <v>0.8589037304589805</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8823767420858194</v>
+        <v>0.8824844760103966</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3721</v>
@@ -5659,19 +5659,19 @@
         <v>2658165</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2608905</v>
+        <v>2607908</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2700509</v>
+        <v>2698787</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7311906736375213</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7176404941533734</v>
+        <v>0.7173662735861965</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7428381429917459</v>
+        <v>0.7423646022017836</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6508</v>
@@ -5680,19 +5680,19 @@
         <v>5657556</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5599184</v>
+        <v>5593389</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5724537</v>
+        <v>5716909</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7993304769586322</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7910833299247256</v>
+        <v>0.79026453319777</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8087938447338099</v>
+        <v>0.8077160940311047</v>
       </c>
     </row>
     <row r="24">
